--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
-    <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="Info2" sheetId="3" r:id="rId2"/>
+    <sheet name="@Types" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -66,6 +67,42 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个类型在这个表里是没有的, 如果单独导出会找不到类型, 因此必须和Sample表一起导出, 类型信息会合并共享</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -95,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -629,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A7" sqref="A7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -700,31 +737,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2">
-        <v>50</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>70</v>
-      </c>
+      <c r="B8" s="4"/>
       <c r="C8" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -736,6 +752,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -127,12 +127,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+列可以自由调整位置</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -231,6 +257,30 @@
   </si>
   <si>
     <t>格斗士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B9"/>
     </sheetView>
   </sheetViews>
@@ -842,10 +892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -854,8 +904,8 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -863,24 +913,44 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="A5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Info2" sheetId="3" r:id="rId2"/>
-    <sheet name="@Types" sheetId="2" r:id="rId3"/>
+    <sheet name="#Info3" sheetId="4" r:id="rId3"/>
+    <sheet name="@Types" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -98,6 +99,42 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+这个类型在这个表里是没有的, 如果单独导出会找不到类型, 因此必须和Sample表一起导出, 类型信息会合并共享</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
@@ -158,62 +195,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>唯一ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字段名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>特性</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>字段类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对象类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>枚举值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Exp</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MakeIndex:true</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TableName: "Exp" Package: "gamedef"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -229,7 +262,7 @@
       </rPr>
       <t>ype</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -245,50 +278,54 @@
       </rPr>
       <t>ctorType</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>超能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>格斗士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ObjectType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FieldName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FieldType</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Meta</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +333,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -417,24 +461,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,7 +766,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="A5:C8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -731,41 +778,41 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -776,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -790,11 +837,11 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -806,7 +853,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -818,41 +865,41 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -871,7 +918,7 @@
         <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -883,7 +930,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -891,6 +938,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>14</v>
+      </c>
+      <c r="C6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -910,51 +1036,51 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -318,6 +318,14 @@
   </si>
   <si>
     <t>经验值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoolChecker</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -763,70 +771,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -834,9 +854,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -850,59 +882,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -910,24 +951,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>80</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>bool</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔检查</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -773,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -827,7 +831,9 @@
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
@@ -884,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -945,7 +951,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -953,7 +959,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4">
         <v>70</v>
@@ -964,7 +970,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>80</v>
@@ -986,7 +992,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1037,7 +1043,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2">
         <v>100</v>
@@ -1045,7 +1051,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6">
         <v>14</v>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -331,6 +331,10 @@
   <si>
     <t>布尔检查</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔检查</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -777,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -891,7 +895,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -944,7 +948,9 @@
       <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
@@ -989,48 +995,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="20.125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1038,10 +1052,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>9</v>
       </c>
@@ -1049,14 +1066,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10</v>
       </c>
       <c r="B6" s="6">
         <v>14</v>
       </c>
-      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+    <author>Davy</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -190,12 +191,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Davy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+别名,字段在使用时, 可直接使用别名</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -334,6 +361,14 @@
   </si>
   <si>
     <t>布尔检查</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -997,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1088,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,16 +1135,17 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1123,13 +1159,16 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,9 +1182,12 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
     </row>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -272,10 +272,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Exp" Package: "gamedef"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>T</t>
     </r>
@@ -369,6 +365,10 @@
   </si>
   <si>
     <t>别名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Exp" Package: "table"</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -549,6 +549,106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1314450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="2409825"/>
+          <a:ext cx="2552700" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>本表格需要配合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Globals</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Sample</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>表一起使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>#Info3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>表不会被导出</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,7 +917,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -836,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -850,10 +950,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -868,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -888,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -914,14 +1014,15 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -949,10 +1050,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -963,10 +1064,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -981,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1006,7 +1107,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1052,10 +1153,10 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1066,10 +1167,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1084,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1126,7 +1227,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1142,30 +1243,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1182,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1028,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1118,9 +1118,6 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1131,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A7" sqref="A7:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1210,9 +1207,6 @@
         <v>14</v>
       </c>
       <c r="D6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/exportorv2/sample/Info.xlsx
+++ b/exportorv2/sample/Info.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24270" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -304,18 +304,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>超能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>格斗士</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ObjectType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -369,6 +361,18 @@
   </si>
   <si>
     <t>TableName: "Exp" Package: "table"</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪八戒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙僧</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -916,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -936,7 +940,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -950,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -968,13 +972,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -988,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1014,7 +1018,7 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1030,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1050,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -1064,7 +1068,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -1082,13 +1086,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1107,7 +1111,7 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1150,7 +1154,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>12</v>
@@ -1164,7 +1168,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
@@ -1182,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1237,30 +1241,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -1277,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>2</v>
